--- a/biology/Zoologie/Euthalia_irrubescens/Euthalia_irrubescens.xlsx
+++ b/biology/Zoologie/Euthalia_irrubescens/Euthalia_irrubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euthalia irrubescens est un papillon de la famille des Nymphalidae, de la sous-famille des Limenitidinae et du genre Euthalia.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euthalia irrubescens a été décrit  par Henley Grose Grose-Smith en 1893[1].
-Sous-espèces
-Euthalia irrubescens irrubescens
-Euthalia irrubescens fulguralis (Matsumura, 1909) ; présent à Taïwan.
-Euthalia irrubescens gustavi (Fruhstorfer, 1913) ; présent à Taïwan[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia irrubescens a été décrit  par Henley Grose Grose-Smith en 1893.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures à bord externe concave, aux ailes de couleur gris-bleu très foncé.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euthalia irrubescens irrubescens
+Euthalia irrubescens fulguralis (Matsumura, 1909) ; présent à Taïwan.
+Euthalia irrubescens gustavi (Fruhstorfer, 1913) ; présent à Taïwan.</t>
         </is>
       </c>
     </row>
@@ -573,12 +591,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon aux ailes antérieures à bord externe concave, aux ailes de couleur gris-bleu très foncé.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +627,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euthalia irrubescens est présent dans l'ouest de la Chine et à Taïwan[1].
-Biotope
-Sur les autres projets Wikimedia :
-Euthalia irrubescens, sur Wikimedia CommonsEuthalia irrubescens, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euthalia irrubescens est présent dans l'ouest de la Chine et à Taïwan.
 </t>
         </is>
       </c>
@@ -639,10 +657,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sur les autres projets Wikimedia :
+Euthalia irrubescens, sur Wikimedia CommonsEuthalia irrubescens, sur Wikispecies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euthalia_irrubescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_irrubescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euthalia_irrubescens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euthalia_irrubescens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission du Laos de 1986 (valeur faciale : 1 k).
 </t>
